--- a/kittyserver/gametools/parseExcelTool/Excel/BurstEventReward.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/BurstEventReward.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="25500" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="突发事件奖励池_3_BurstEventReward" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="165">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +102,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>金币奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经验奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goldreward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Expreward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,24 +306,252 @@
   </si>
   <si>
     <t>70</t>
+  </si>
+  <si>
+    <t>Goldreward</t>
+  </si>
+  <si>
+    <t>金币奖励</t>
+  </si>
+  <si>
+    <t>奖励道具</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>1_100</t>
+  </si>
+  <si>
+    <t>1_101</t>
+  </si>
+  <si>
+    <t>1_102</t>
+  </si>
+  <si>
+    <t>1_103</t>
+  </si>
+  <si>
+    <t>1_104</t>
+  </si>
+  <si>
+    <t>1_105</t>
+  </si>
+  <si>
+    <t>1_106</t>
+  </si>
+  <si>
+    <t>1_107</t>
+  </si>
+  <si>
+    <t>1_108</t>
+  </si>
+  <si>
+    <t>1_109</t>
+  </si>
+  <si>
+    <t>1_110</t>
+  </si>
+  <si>
+    <t>1_111</t>
+  </si>
+  <si>
+    <t>1_112</t>
+  </si>
+  <si>
+    <t>1_113</t>
+  </si>
+  <si>
+    <t>1_114</t>
+  </si>
+  <si>
+    <t>1_115</t>
+  </si>
+  <si>
+    <t>1_116</t>
+  </si>
+  <si>
+    <t>1_117</t>
+  </si>
+  <si>
+    <t>1_118</t>
+  </si>
+  <si>
+    <t>1_119</t>
+  </si>
+  <si>
+    <t>1_120</t>
+  </si>
+  <si>
+    <t>1_121</t>
+  </si>
+  <si>
+    <t>1_122</t>
+  </si>
+  <si>
+    <t>1_123</t>
+  </si>
+  <si>
+    <t>1_124</t>
+  </si>
+  <si>
+    <t>1_125</t>
+  </si>
+  <si>
+    <t>1_126</t>
+  </si>
+  <si>
+    <t>1_127</t>
+  </si>
+  <si>
+    <t>1_128</t>
+  </si>
+  <si>
+    <t>1_129</t>
+  </si>
+  <si>
+    <t>1_130</t>
+  </si>
+  <si>
+    <t>1_131</t>
+  </si>
+  <si>
+    <t>1_132</t>
+  </si>
+  <si>
+    <t>1_133</t>
+  </si>
+  <si>
+    <t>1_134</t>
+  </si>
+  <si>
+    <t>1_135</t>
+  </si>
+  <si>
+    <t>1_136</t>
+  </si>
+  <si>
+    <t>1_137</t>
+  </si>
+  <si>
+    <t>1_138</t>
+  </si>
+  <si>
+    <t>1_139</t>
+  </si>
+  <si>
+    <t>1_140</t>
+  </si>
+  <si>
+    <t>1_141</t>
+  </si>
+  <si>
+    <t>1_142</t>
+  </si>
+  <si>
+    <t>1_143</t>
+  </si>
+  <si>
+    <t>1_144</t>
+  </si>
+  <si>
+    <t>1_145</t>
+  </si>
+  <si>
+    <t>1_146</t>
+  </si>
+  <si>
+    <t>1_147</t>
+  </si>
+  <si>
+    <t>1_148</t>
+  </si>
+  <si>
+    <t>1_149</t>
+  </si>
+  <si>
+    <t>1_150</t>
+  </si>
+  <si>
+    <t>1_151</t>
+  </si>
+  <si>
+    <t>1_152</t>
+  </si>
+  <si>
+    <t>1_153</t>
+  </si>
+  <si>
+    <t>1_154</t>
+  </si>
+  <si>
+    <t>1_155</t>
+  </si>
+  <si>
+    <t>1_156</t>
+  </si>
+  <si>
+    <t>1_157</t>
+  </si>
+  <si>
+    <t>1_158</t>
+  </si>
+  <si>
+    <t>1_159</t>
+  </si>
+  <si>
+    <t>1_160</t>
+  </si>
+  <si>
+    <t>1_161</t>
+  </si>
+  <si>
+    <t>1_162</t>
+  </si>
+  <si>
+    <t>1_163</t>
+  </si>
+  <si>
+    <t>1_164</t>
+  </si>
+  <si>
+    <t>1_165</t>
+  </si>
+  <si>
+    <t>1_166</t>
+  </si>
+  <si>
+    <t>1_167</t>
+  </si>
+  <si>
+    <t>1_168</t>
+  </si>
+  <si>
+    <t>1_169</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -334,10 +559,17 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,9 +607,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,20 +911,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="18.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="1" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -700,16 +935,18 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -727,7 +964,9 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -740,12 +979,14 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -755,15 +996,17 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
@@ -782,10 +1025,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -803,9 +1046,11 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
@@ -818,9 +1063,11 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
@@ -830,13 +1077,15 @@
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D72" si="0">MROUND($D$7*(10+5*E9)%+POWER(E9,1.3),5)</f>
+        <f t="shared" ref="D9:D23" si="0">MROUND($D$7*(10+5*E9)%+POWER(E9,1.3),5)</f>
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
@@ -850,9 +1099,11 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
@@ -866,9 +1117,11 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
@@ -882,9 +1135,11 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -898,9 +1153,11 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
@@ -916,7 +1173,9 @@
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
@@ -932,7 +1191,9 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -948,7 +1209,9 @@
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
@@ -965,7 +1228,9 @@
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
@@ -982,7 +1247,9 @@
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
@@ -997,9 +1264,11 @@
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
@@ -1014,7 +1283,9 @@
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
@@ -1030,7 +1301,9 @@
       <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
@@ -1043,9 +1316,11 @@
         <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
@@ -1059,9 +1334,11 @@
         <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
@@ -1074,9 +1351,11 @@
         <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
@@ -1089,9 +1368,11 @@
         <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
@@ -1104,9 +1385,11 @@
         <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
@@ -1119,9 +1402,11 @@
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
@@ -1134,9 +1419,11 @@
         <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
@@ -1149,9 +1436,11 @@
         <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
@@ -1164,9 +1453,11 @@
         <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
@@ -1179,9 +1470,11 @@
         <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
@@ -1194,9 +1487,11 @@
         <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
@@ -1209,9 +1504,11 @@
         <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
@@ -1224,9 +1521,11 @@
         <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
@@ -1239,9 +1538,11 @@
         <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
@@ -1254,9 +1555,11 @@
         <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
@@ -1269,9 +1572,11 @@
         <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
@@ -1284,9 +1589,11 @@
         <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
@@ -1299,9 +1606,11 @@
         <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
@@ -1314,9 +1623,11 @@
         <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
@@ -1329,9 +1640,11 @@
         <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
@@ -1344,9 +1657,11 @@
         <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
@@ -1359,9 +1674,11 @@
         <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
@@ -1374,9 +1691,11 @@
         <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
@@ -1389,9 +1708,11 @@
         <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
@@ -1404,9 +1725,11 @@
         <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
@@ -1419,9 +1742,11 @@
         <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
@@ -1434,9 +1759,11 @@
         <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
@@ -1449,9 +1776,11 @@
         <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
@@ -1464,9 +1793,11 @@
         <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
@@ -1479,9 +1810,11 @@
         <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F51" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
@@ -1494,9 +1827,11 @@
         <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
@@ -1509,9 +1844,11 @@
         <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
@@ -1524,9 +1861,11 @@
         <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
@@ -1539,9 +1878,11 @@
         <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
@@ -1554,9 +1895,11 @@
         <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
@@ -1569,9 +1912,11 @@
         <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F57" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
@@ -1584,9 +1929,11 @@
         <v>125</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
@@ -1599,9 +1946,11 @@
         <v>130</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
@@ -1614,9 +1963,11 @@
         <v>130</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
@@ -1629,9 +1980,11 @@
         <v>135</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
@@ -1644,9 +1997,11 @@
         <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
@@ -1659,9 +2014,11 @@
         <v>140</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
@@ -1674,9 +2031,11 @@
         <v>140</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
@@ -1689,9 +2048,11 @@
         <v>145</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F65" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
@@ -1704,9 +2065,11 @@
         <v>145</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
@@ -1719,9 +2082,11 @@
         <v>150</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
@@ -1734,9 +2099,11 @@
         <v>150</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
@@ -1749,9 +2116,11 @@
         <v>160</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
@@ -1764,9 +2133,11 @@
         <v>160</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F70" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
@@ -1779,9 +2150,11 @@
         <v>170</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F71" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
@@ -1794,9 +2167,11 @@
         <v>170</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F72" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
@@ -1809,9 +2184,11 @@
         <v>180</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F73" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
@@ -1824,9 +2201,11 @@
         <v>180</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F74" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
@@ -1839,9 +2218,11 @@
         <v>190</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F75" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
@@ -1854,13 +2235,20 @@
         <v>190</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/kittyserver/gametools/parseExcelTool/Excel/BurstEventReward.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/BurstEventReward.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="25500" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="突发事件奖励池_3_BurstEventReward" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="162">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +102,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>金币奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经验奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goldreward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Expreward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,13 +306,232 @@
   </si>
   <si>
     <t>70</t>
+  </si>
+  <si>
+    <t>Goldreward</t>
+  </si>
+  <si>
+    <t>金币奖励</t>
+  </si>
+  <si>
+    <t>奖励道具</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>1_10,2_2</t>
+  </si>
+  <si>
+    <t>1_15,2_3</t>
+  </si>
+  <si>
+    <t>1_15,2_5</t>
+  </si>
+  <si>
+    <t>1_20,2_5</t>
+  </si>
+  <si>
+    <t>1_30,2_10</t>
+  </si>
+  <si>
+    <t>1_40,2_10</t>
+  </si>
+  <si>
+    <t>1_40,2_15</t>
+  </si>
+  <si>
+    <t>1_50,2_15</t>
+  </si>
+  <si>
+    <t>1_50,2_20</t>
+  </si>
+  <si>
+    <t>1_60,2_20</t>
+  </si>
+  <si>
+    <t>1_60,2_25</t>
+  </si>
+  <si>
+    <t>1_70,2_25</t>
+  </si>
+  <si>
+    <t>1_70,2_30</t>
+  </si>
+  <si>
+    <t>1_80,2_30</t>
+  </si>
+  <si>
+    <t>1_80,2_35</t>
+  </si>
+  <si>
+    <t>1_90,2_35</t>
+  </si>
+  <si>
+    <t>1_90,2_40</t>
+  </si>
+  <si>
+    <t>1_100,2_40</t>
+  </si>
+  <si>
+    <t>1_100,2_45</t>
+  </si>
+  <si>
+    <t>1_110,2_45</t>
+  </si>
+  <si>
+    <t>1_100,2_50</t>
+  </si>
+  <si>
+    <t>1_120,2_50</t>
+  </si>
+  <si>
+    <t>1_120,2_55</t>
+  </si>
+  <si>
+    <t>1_130,2_55</t>
+  </si>
+  <si>
+    <t>1_130,2_60</t>
+  </si>
+  <si>
+    <t>1_140,2_60</t>
+  </si>
+  <si>
+    <t>1_140,2_65</t>
+  </si>
+  <si>
+    <t>1_150,2_65</t>
+  </si>
+  <si>
+    <t>1_150,2_70</t>
+  </si>
+  <si>
+    <t>1_160,2_70</t>
+  </si>
+  <si>
+    <t>1_160,2_75</t>
+  </si>
+  <si>
+    <t>1_170,2_75</t>
+  </si>
+  <si>
+    <t>1_170,2_80</t>
+  </si>
+  <si>
+    <t>1_180,2_80</t>
+  </si>
+  <si>
+    <t>1_180,2_85</t>
+  </si>
+  <si>
+    <t>1_190,2_85</t>
+  </si>
+  <si>
+    <t>1_190,2_90</t>
+  </si>
+  <si>
+    <t>1_200,2_90</t>
+  </si>
+  <si>
+    <t>1_200,2_95</t>
+  </si>
+  <si>
+    <t>1_220,2_95</t>
+  </si>
+  <si>
+    <t>1_220,2_100</t>
+  </si>
+  <si>
+    <t>1_240,2_100</t>
+  </si>
+  <si>
+    <t>1_240,2_105</t>
+  </si>
+  <si>
+    <t>1_260,2_105</t>
+  </si>
+  <si>
+    <t>1_260,2_110</t>
+  </si>
+  <si>
+    <t>1_280,2_110</t>
+  </si>
+  <si>
+    <t>1_280,2_115</t>
+  </si>
+  <si>
+    <t>1_300,2_115</t>
+  </si>
+  <si>
+    <t>1_300,2_120</t>
+  </si>
+  <si>
+    <t>1_320,2_120</t>
+  </si>
+  <si>
+    <t>1_320,2_125</t>
+  </si>
+  <si>
+    <t>1_340,2_125</t>
+  </si>
+  <si>
+    <t>1_340,2_130</t>
+  </si>
+  <si>
+    <t>1_360,2_130</t>
+  </si>
+  <si>
+    <t>1_360,2_135</t>
+  </si>
+  <si>
+    <t>1_380,2_135</t>
+  </si>
+  <si>
+    <t>1_380,2_140</t>
+  </si>
+  <si>
+    <t>1_400,2_140</t>
+  </si>
+  <si>
+    <t>1_400,2_145</t>
+  </si>
+  <si>
+    <t>1_420,2_145</t>
+  </si>
+  <si>
+    <t>1_420,2_150</t>
+  </si>
+  <si>
+    <t>1_440,2_150</t>
+  </si>
+  <si>
+    <t>1_440,2_160</t>
+  </si>
+  <si>
+    <t>1_460,2_160</t>
+  </si>
+  <si>
+    <t>1_460,2_170</t>
+  </si>
+  <si>
+    <t>1_480,2_170</t>
+  </si>
+  <si>
+    <t>1_480,2_180</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +554,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +597,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,42 +902,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="18.875" style="1" customWidth="1"/>
     <col min="3" max="4" width="18.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.625" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,9 +955,11 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -740,14 +970,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -755,17 +987,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -777,22 +1011,22 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -803,11 +1037,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -818,11 +1054,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -830,15 +1068,17 @@
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D72" si="0">MROUND($D$7*(10+5*E9)%+POWER(E9,1.3),5)</f>
+        <f t="shared" ref="D9:D23" si="0">MROUND($D$7*(10+5*E9)%+POWER(E9,1.3),5)</f>
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -850,11 +1090,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -866,11 +1108,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -882,11 +1126,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -898,11 +1144,13 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -916,9 +1164,11 @@
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -932,9 +1182,11 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -948,9 +1200,11 @@
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -965,9 +1219,11 @@
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -982,9 +1238,11 @@
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -997,11 +1255,13 @@
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -1014,9 +1274,11 @@
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -1030,9 +1292,11 @@
       <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -1043,11 +1307,13 @@
         <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -1059,11 +1325,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -1074,11 +1342,13 @@
         <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -1089,11 +1359,13 @@
         <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -1104,11 +1376,13 @@
         <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -1119,11 +1393,13 @@
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -1134,11 +1410,13 @@
         <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -1149,11 +1427,13 @@
         <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -1164,11 +1444,13 @@
         <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -1179,11 +1461,13 @@
         <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -1194,11 +1478,13 @@
         <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -1209,11 +1495,13 @@
         <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -1224,11 +1512,13 @@
         <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -1239,11 +1529,13 @@
         <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -1254,11 +1546,13 @@
         <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -1269,11 +1563,13 @@
         <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -1284,11 +1580,13 @@
         <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -1299,11 +1597,13 @@
         <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -1314,11 +1614,13 @@
         <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -1329,11 +1631,13 @@
         <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -1344,11 +1648,13 @@
         <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -1359,11 +1665,13 @@
         <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -1374,11 +1682,13 @@
         <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -1389,11 +1699,13 @@
         <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>40</v>
       </c>
@@ -1404,11 +1716,13 @@
         <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>41</v>
       </c>
@@ -1419,11 +1733,13 @@
         <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>42</v>
       </c>
@@ -1434,11 +1750,13 @@
         <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>43</v>
       </c>
@@ -1449,11 +1767,13 @@
         <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>44</v>
       </c>
@@ -1464,11 +1784,13 @@
         <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>45</v>
       </c>
@@ -1479,11 +1801,13 @@
         <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>46</v>
       </c>
@@ -1494,11 +1818,13 @@
         <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>47</v>
       </c>
@@ -1509,11 +1835,13 @@
         <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -1524,11 +1852,13 @@
         <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>49</v>
       </c>
@@ -1539,11 +1869,13 @@
         <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -1554,11 +1886,13 @@
         <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>51</v>
       </c>
@@ -1569,11 +1903,13 @@
         <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>52</v>
       </c>
@@ -1584,11 +1920,13 @@
         <v>125</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>53</v>
       </c>
@@ -1599,11 +1937,13 @@
         <v>130</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>54</v>
       </c>
@@ -1614,11 +1954,13 @@
         <v>130</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>55</v>
       </c>
@@ -1629,11 +1971,13 @@
         <v>135</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -1644,11 +1988,13 @@
         <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>57</v>
       </c>
@@ -1659,11 +2005,13 @@
         <v>140</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>58</v>
       </c>
@@ -1674,11 +2022,13 @@
         <v>140</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>59</v>
       </c>
@@ -1689,11 +2039,13 @@
         <v>145</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6">
+        <v>77</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>60</v>
       </c>
@@ -1704,11 +2056,13 @@
         <v>145</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>61</v>
       </c>
@@ -1719,11 +2073,13 @@
         <v>150</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>62</v>
       </c>
@@ -1734,11 +2090,13 @@
         <v>150</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>63</v>
       </c>
@@ -1749,11 +2107,13 @@
         <v>160</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6">
+        <v>81</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>64</v>
       </c>
@@ -1764,11 +2124,13 @@
         <v>160</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>65</v>
       </c>
@@ -1779,11 +2141,13 @@
         <v>170</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6">
+        <v>83</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>66</v>
       </c>
@@ -1794,11 +2158,13 @@
         <v>170</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>67</v>
       </c>
@@ -1809,11 +2175,13 @@
         <v>180</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6">
+        <v>85</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>68</v>
       </c>
@@ -1824,11 +2192,14 @@
         <v>180</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f t="shared" ref="F32:F76" si="1">"1_"&amp;C74&amp;","&amp;"2_"&amp;D74</f>
+        <v>1_500,2_180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>69</v>
       </c>
@@ -1839,11 +2210,14 @@
         <v>190</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6">
+        <v>87</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1_500,2_190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>70</v>
       </c>
@@ -1854,13 +2228,21 @@
         <v>190</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1_500,2_190</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>